--- a/2. Base de datos/Necesitan_Preferente.xlsx
+++ b/2. Base de datos/Necesitan_Preferente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hackaton_Biodiversidad_IA_2025\Hackathon-PNAV\2. Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF61C939-4590-457B-8FF6-B473981F6702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEED28F-2C98-498E-BE82-B719CB195F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8908,8 +8908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" zoomScale="130" workbookViewId="0">
-      <selection activeCell="B475" sqref="B475"/>
+    <sheetView tabSelected="1" topLeftCell="A1047" zoomScale="130" workbookViewId="0">
+      <selection activeCell="B1058" sqref="B1058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10064,7 +10064,7 @@
         <v>5</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -23084,7 +23084,7 @@
         <v>5</v>
       </c>
       <c r="D1012">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.35">
@@ -23627,7 +23627,7 @@
         <v>5</v>
       </c>
       <c r="D1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.35">
@@ -23767,7 +23767,7 @@
         <v>5</v>
       </c>
       <c r="D1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.35">
